--- a/Mahjong/documents/方案文档.xlsx
+++ b/Mahjong/documents/方案文档.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\WpfPractice\Mahjong\Mahjong\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54AC479-3298-4D90-B463-50A7C73B6375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF235B7-F58A-4469-B3C7-6FEC9925E397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="471" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="135">
   <si>
     <t>处理动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +452,100 @@
   </si>
   <si>
     <t>135（东）占位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205（自身）</t>
+  </si>
+  <si>
+    <t>206（自身）</t>
+  </si>
+  <si>
+    <t>225（占位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230（占位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235（占位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250（自身）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251（南）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252（西）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>253（北）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>265（东）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266（南）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267（西）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>268（北）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135（东）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235（南）占位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130（东）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210（自身）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusTemp=206，250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusTemp=210，255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221（占位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusTemp=222，150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -548,59 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -608,33 +655,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,46 +675,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G68"/>
+  <dimension ref="B2:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:D68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,1021 +1007,2050 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="4">
         <v>100</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="6">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="7">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+      <c r="B10" s="15"/>
+      <c r="C10" s="4">
         <v>110</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="14">
         <v>121</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="6">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="14">
         <v>122</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="14">
         <v>123</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="6">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="16">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13">
         <v>125</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="18">
+      <c r="B25" s="15"/>
+      <c r="C25" s="12">
         <v>130</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="8">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="9"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="9"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
-      <c r="C31" s="20">
+      <c r="B31" s="15"/>
+      <c r="C31" s="11">
         <v>136</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="9">
         <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="20">
+      <c r="B33" s="15"/>
+      <c r="C33" s="11">
         <v>137</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="9">
         <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
-      <c r="C35" s="20">
+      <c r="B35" s="15"/>
+      <c r="C35" s="11">
         <v>138</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="9"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="9"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="6">
         <v>1002</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="6">
         <v>1003</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="C45" s="16">
+      <c r="B45" s="15"/>
+      <c r="C45" s="13">
         <v>155</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="9"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="9"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="9"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="9"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="9"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17" t="s">
+      <c r="B52" s="15"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="9"/>
-      <c r="C53" s="24">
+      <c r="B53" s="15"/>
+      <c r="C53" s="12">
         <v>160</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="9"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="4" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="9"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="18" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="8">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="9"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="9"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="18" t="s">
+      <c r="B57" s="15"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="8">
         <v>110</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="9"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="9"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="18" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="8">
         <v>110</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="9"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="9"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="9"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="4" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="9"/>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="11"/>
+      <c r="E63" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="9"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="21" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="9"/>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="11"/>
+      <c r="E65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="9"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="21" t="s">
+      <c r="B66" s="15"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="9"/>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="21" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G68" s="9" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="4">
+        <v>200</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="16"/>
+      <c r="C70" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="16"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="16"/>
+      <c r="C72" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="16"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="16"/>
+      <c r="C74" s="4">
+        <v>210</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="16"/>
+      <c r="C75" s="14">
+        <v>220</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="16"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="16"/>
+      <c r="C77" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="16"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="16"/>
+      <c r="C79" s="14">
+        <v>222</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="16"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="16"/>
+      <c r="C81" s="14">
+        <v>223</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="16"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="16"/>
+      <c r="C83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="16"/>
+      <c r="C84" s="13">
+        <v>225</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="16"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="16"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="16"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="16"/>
+      <c r="C88" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="16"/>
+      <c r="C89" s="12">
+        <v>230</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="16"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="16"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="8">
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="16"/>
+      <c r="C93" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="16"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="16"/>
+      <c r="C95" s="11">
+        <v>236</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="16"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G96" s="9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="16"/>
+      <c r="C97" s="11">
+        <v>237</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="16"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" s="9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="16"/>
+      <c r="C99" s="11">
+        <v>238</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="16"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="16"/>
+      <c r="C101" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="16"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="16"/>
+      <c r="C103" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="14"/>
+      <c r="E103" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="16"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="16"/>
+      <c r="C105" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="16"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="16"/>
+      <c r="C107" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="14"/>
+      <c r="E107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="16"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="16"/>
+      <c r="C109" s="13">
+        <v>255</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="16"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="16"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="16"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="16"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="16"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="16"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="16"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="16"/>
+      <c r="C117" s="12">
+        <v>260</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="16"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="16"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="16"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="16"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="16"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="16"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="16"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="16"/>
+      <c r="C125" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="16"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="16"/>
+      <c r="C127" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="16"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="16"/>
+      <c r="C129" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="16"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="16"/>
+      <c r="C131" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="16"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="79">
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="C117:C124"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B69:B132"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D63:D64"/>
     <mergeCell ref="B5:B68"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C29:C30"/>
@@ -2015,30 +3067,132 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E4E039-2F48-40B2-82FC-90B8A0954292}">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B18"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C20:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
